--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd14-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd14-Itga4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.871992</v>
+        <v>1.6209125</v>
       </c>
       <c r="H2">
-        <v>1.743984</v>
+        <v>3.241825</v>
       </c>
       <c r="I2">
-        <v>0.003182586221429946</v>
+        <v>0.003190269591522575</v>
       </c>
       <c r="J2">
-        <v>0.002124695300791682</v>
+        <v>0.002130042958301246</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N2">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O2">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P2">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q2">
-        <v>0.276650797896</v>
+        <v>1.3385317124625</v>
       </c>
       <c r="R2">
-        <v>1.106603191584</v>
+        <v>5.354126849849999</v>
       </c>
       <c r="S2">
-        <v>8.235708881455819E-06</v>
+        <v>1.86908817466386E-05</v>
       </c>
       <c r="T2">
-        <v>3.682493347895937E-06</v>
+        <v>8.389170698836976E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.871992</v>
+        <v>1.6209125</v>
       </c>
       <c r="H3">
-        <v>1.743984</v>
+        <v>3.241825</v>
       </c>
       <c r="I3">
-        <v>0.003182586221429946</v>
+        <v>0.003190269591522575</v>
       </c>
       <c r="J3">
-        <v>0.002124695300791682</v>
+        <v>0.002130042958301246</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O3">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P3">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q3">
-        <v>0.024787535256</v>
+        <v>0.04607659902916666</v>
       </c>
       <c r="R3">
-        <v>0.148725211536</v>
+        <v>0.276459594175</v>
       </c>
       <c r="S3">
-        <v>7.379083155002534E-07</v>
+        <v>6.434007171612415E-07</v>
       </c>
       <c r="T3">
-        <v>4.949195938625328E-07</v>
+        <v>4.331736605998134E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.871992</v>
+        <v>1.6209125</v>
       </c>
       <c r="H4">
-        <v>1.743984</v>
+        <v>3.241825</v>
       </c>
       <c r="I4">
-        <v>0.003182586221429946</v>
+        <v>0.003190269591522575</v>
       </c>
       <c r="J4">
-        <v>0.002124695300791682</v>
+        <v>0.002130042958301246</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N4">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O4">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P4">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q4">
-        <v>43.068690868104</v>
+        <v>94.43564169026666</v>
       </c>
       <c r="R4">
-        <v>258.412145208624</v>
+        <v>566.6138501416</v>
       </c>
       <c r="S4">
-        <v>0.001282126068649404</v>
+        <v>0.001318672837607618</v>
       </c>
       <c r="T4">
-        <v>0.0008599297498719012</v>
+        <v>0.0008878049479340011</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.871992</v>
+        <v>1.6209125</v>
       </c>
       <c r="H5">
-        <v>1.743984</v>
+        <v>3.241825</v>
       </c>
       <c r="I5">
-        <v>0.003182586221429946</v>
+        <v>0.003190269591522575</v>
       </c>
       <c r="J5">
-        <v>0.002124695300791682</v>
+        <v>0.002130042958301246</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N5">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O5">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P5">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q5">
-        <v>1.208533388436</v>
+        <v>4.35007610495625</v>
       </c>
       <c r="R5">
-        <v>4.834133553744</v>
+        <v>17.400304419825</v>
       </c>
       <c r="S5">
-        <v>3.597722918702693E-05</v>
+        <v>6.074324374208162E-05</v>
       </c>
       <c r="T5">
-        <v>1.608676424384914E-05</v>
+        <v>2.72638523672126E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.871992</v>
+        <v>1.6209125</v>
       </c>
       <c r="H6">
-        <v>1.743984</v>
+        <v>3.241825</v>
       </c>
       <c r="I6">
-        <v>0.003182586221429946</v>
+        <v>0.003190269591522575</v>
       </c>
       <c r="J6">
-        <v>0.002124695300791682</v>
+        <v>0.002130042958301246</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N6">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O6">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P6">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q6">
-        <v>0.535210087104</v>
+        <v>92.07184770178333</v>
       </c>
       <c r="R6">
-        <v>3.211260522624</v>
+        <v>552.4310862107</v>
       </c>
       <c r="S6">
-        <v>1.593284567161874E-05</v>
+        <v>0.001285665480739788</v>
       </c>
       <c r="T6">
-        <v>1.068625646741239E-05</v>
+        <v>0.0008655825331623074</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.871992</v>
+        <v>1.6209125</v>
       </c>
       <c r="H7">
-        <v>1.743984</v>
+        <v>3.241825</v>
       </c>
       <c r="I7">
-        <v>0.003182586221429946</v>
+        <v>0.003190269591522575</v>
       </c>
       <c r="J7">
-        <v>0.002124695300791682</v>
+        <v>0.002130042958301246</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N7">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O7">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P7">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q7">
-        <v>61.79435225013601</v>
+        <v>36.226288912675</v>
       </c>
       <c r="R7">
-        <v>370.766113500816</v>
+        <v>217.35773347605</v>
       </c>
       <c r="S7">
-        <v>0.00183957646072494</v>
+        <v>0.0005058537469692883</v>
       </c>
       <c r="T7">
-        <v>0.001233815117266761</v>
+        <v>0.0003405692804782877</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2.885984</v>
       </c>
       <c r="I8">
-        <v>0.003511076903483549</v>
+        <v>0.001893391735996584</v>
       </c>
       <c r="J8">
-        <v>0.003515993634666363</v>
+        <v>0.001896237427057309</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N8">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O8">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P8">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q8">
-        <v>0.3052053139306667</v>
+        <v>0.7944046137919999</v>
       </c>
       <c r="R8">
-        <v>1.831231883584</v>
+        <v>4.766427682751999</v>
       </c>
       <c r="S8">
-        <v>9.085757690643717E-06</v>
+        <v>1.109284341725028E-05</v>
       </c>
       <c r="T8">
-        <v>6.09387292666338E-06</v>
+        <v>7.468327997381825E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2.885984</v>
       </c>
       <c r="I9">
-        <v>0.003511076903483549</v>
+        <v>0.001893391735996584</v>
       </c>
       <c r="J9">
-        <v>0.003515993634666363</v>
+        <v>0.001896237427057309</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O9">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P9">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q9">
         <v>0.02734598105955555</v>
@@ -1013,10 +1013,10 @@
         <v>0.246113829536</v>
       </c>
       <c r="S9">
-        <v>8.140715327666167E-07</v>
+        <v>3.818516165669787E-07</v>
       </c>
       <c r="T9">
-        <v>8.190040901600979E-07</v>
+        <v>3.856260759641535E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2.885984</v>
       </c>
       <c r="I10">
-        <v>0.003511076903483549</v>
+        <v>0.001893391735996584</v>
       </c>
       <c r="J10">
-        <v>0.003515993634666363</v>
+        <v>0.001896237427057309</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N10">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O10">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P10">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q10">
-        <v>47.51402640784711</v>
+        <v>56.04656861445688</v>
       </c>
       <c r="R10">
-        <v>427.6262376706241</v>
+        <v>504.419117530112</v>
       </c>
       <c r="S10">
-        <v>0.001414460729037683</v>
+        <v>0.0007826185786442684</v>
       </c>
       <c r="T10">
-        <v>0.001423031116830378</v>
+        <v>0.0007903544685041174</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2.885984</v>
       </c>
       <c r="I11">
-        <v>0.003511076903483549</v>
+        <v>0.001893391735996584</v>
       </c>
       <c r="J11">
-        <v>0.003515993634666363</v>
+        <v>0.001896237427057309</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N11">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O11">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P11">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q11">
-        <v>1.333272179290667</v>
+        <v>2.581724807824</v>
       </c>
       <c r="R11">
-        <v>7.999633075744001</v>
+        <v>15.490348846944</v>
       </c>
       <c r="S11">
-        <v>3.969061940862329E-05</v>
+        <v>3.605048176006779E-05</v>
       </c>
       <c r="T11">
-        <v>2.662073976568633E-05</v>
+        <v>2.427121812871999E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2.885984</v>
       </c>
       <c r="I12">
-        <v>0.003511076903483549</v>
+        <v>0.001893391735996584</v>
       </c>
       <c r="J12">
-        <v>0.003515993634666363</v>
+        <v>0.001896237427057309</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N12">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O12">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P12">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q12">
-        <v>0.5904518038471112</v>
+        <v>54.64368153078044</v>
       </c>
       <c r="R12">
-        <v>5.314066234624001</v>
+        <v>491.793133777024</v>
       </c>
       <c r="S12">
-        <v>1.757735456394132E-05</v>
+        <v>0.0007630290565277966</v>
       </c>
       <c r="T12">
-        <v>1.768385787074232E-05</v>
+        <v>0.0007705713113403373</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2.885984</v>
       </c>
       <c r="I13">
-        <v>0.003511076903483549</v>
+        <v>0.001893391735996584</v>
       </c>
       <c r="J13">
-        <v>0.003515993634666363</v>
+        <v>0.001896237427057309</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N13">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O13">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P13">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q13">
-        <v>68.172457195424</v>
+        <v>21.49992471963733</v>
       </c>
       <c r="R13">
-        <v>613.5521147588161</v>
+        <v>193.499322476736</v>
       </c>
       <c r="S13">
-        <v>0.002029448371249891</v>
+        <v>0.0003002189240306338</v>
       </c>
       <c r="T13">
-        <v>0.002041745043182734</v>
+        <v>0.0003031864750107889</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>143.1730116666667</v>
+        <v>209.9667966666667</v>
       </c>
       <c r="H14">
-        <v>429.519035</v>
+        <v>629.90039</v>
       </c>
       <c r="I14">
-        <v>0.5225511864913465</v>
+        <v>0.4132553031919183</v>
       </c>
       <c r="J14">
-        <v>0.5232829402477764</v>
+        <v>0.4138764091678941</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N14">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O14">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P14">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q14">
-        <v>45.42349920040167</v>
+        <v>173.38827105257</v>
       </c>
       <c r="R14">
-        <v>272.54099520241</v>
+        <v>1040.32962631542</v>
       </c>
       <c r="S14">
-        <v>0.00135222713484521</v>
+        <v>0.00242114522975002</v>
       </c>
       <c r="T14">
-        <v>0.0009069469612004366</v>
+        <v>0.001630051558913262</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>143.1730116666667</v>
+        <v>209.9667966666667</v>
       </c>
       <c r="H15">
-        <v>429.519035</v>
+        <v>629.90039</v>
       </c>
       <c r="I15">
-        <v>0.5225511864913465</v>
+        <v>0.4132553031919183</v>
       </c>
       <c r="J15">
-        <v>0.5232829402477764</v>
+        <v>0.4138764091678941</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O15">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P15">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q15">
-        <v>4.069883753973889</v>
+        <v>5.968586150978889</v>
       </c>
       <c r="R15">
-        <v>36.628953785765</v>
+        <v>53.71727535881</v>
       </c>
       <c r="S15">
-        <v>0.000121157712300168</v>
+        <v>8.334366448243315E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001218918214607629</v>
+        <v>8.416748521266574E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>143.1730116666667</v>
+        <v>209.9667966666667</v>
       </c>
       <c r="H16">
-        <v>429.519035</v>
+        <v>629.90039</v>
       </c>
       <c r="I16">
-        <v>0.5225511864913465</v>
+        <v>0.4132553031919183</v>
       </c>
       <c r="J16">
-        <v>0.5232829402477764</v>
+        <v>0.4138764091678941</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N16">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O16">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P16">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q16">
-        <v>7071.480220147793</v>
+        <v>12232.8313075915</v>
       </c>
       <c r="R16">
-        <v>63643.32198133014</v>
+        <v>110095.4817683235</v>
       </c>
       <c r="S16">
-        <v>0.2105132278563089</v>
+        <v>0.1708158284693437</v>
       </c>
       <c r="T16">
-        <v>0.2117887528399174</v>
+        <v>0.1725042785923228</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>143.1730116666667</v>
+        <v>209.9667966666667</v>
       </c>
       <c r="H17">
-        <v>429.519035</v>
+        <v>629.90039</v>
       </c>
       <c r="I17">
-        <v>0.5225511864913465</v>
+        <v>0.4132553031919183</v>
       </c>
       <c r="J17">
-        <v>0.5232829402477764</v>
+        <v>0.4138764091678941</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N17">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O17">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P17">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q17">
-        <v>198.4299912408642</v>
+        <v>563.492196533665</v>
       </c>
       <c r="R17">
-        <v>1190.579947445185</v>
+        <v>3380.95317920199</v>
       </c>
       <c r="S17">
-        <v>0.005907127879760991</v>
+        <v>0.007868447129420883</v>
       </c>
       <c r="T17">
-        <v>0.003961946585685755</v>
+        <v>0.00529748251031738</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>143.1730116666667</v>
+        <v>209.9667966666667</v>
       </c>
       <c r="H18">
-        <v>429.519035</v>
+        <v>629.90039</v>
       </c>
       <c r="I18">
-        <v>0.5225511864913465</v>
+        <v>0.4132553031919183</v>
       </c>
       <c r="J18">
-        <v>0.5232829402477764</v>
+        <v>0.4138764091678941</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N18">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O18">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P18">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q18">
-        <v>87.87654020341778</v>
+        <v>11926.63448836667</v>
       </c>
       <c r="R18">
-        <v>790.8888618307601</v>
+        <v>107339.7103953</v>
       </c>
       <c r="S18">
-        <v>0.002616025719531681</v>
+        <v>0.1665401818888085</v>
       </c>
       <c r="T18">
-        <v>0.002631876534214464</v>
+        <v>0.1681863688558529</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>143.1730116666667</v>
+        <v>209.9667966666667</v>
       </c>
       <c r="H19">
-        <v>429.519035</v>
+        <v>629.90039</v>
       </c>
       <c r="I19">
-        <v>0.5225511864913465</v>
+        <v>0.4132553031919183</v>
       </c>
       <c r="J19">
-        <v>0.5232829402477764</v>
+        <v>0.4138764091678941</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N19">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O19">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P19">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q19">
-        <v>10146.06041757589</v>
+        <v>4692.614708144673</v>
       </c>
       <c r="R19">
-        <v>91314.54375818298</v>
+        <v>42233.53237330206</v>
       </c>
       <c r="S19">
-        <v>0.3020414201885995</v>
+        <v>0.06552635681011283</v>
       </c>
       <c r="T19">
-        <v>0.3038715255052977</v>
+        <v>0.06617406016527505</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.2774365</v>
+        <v>0.6665209999999999</v>
       </c>
       <c r="H20">
-        <v>0.5548729999999999</v>
+        <v>1.333042</v>
       </c>
       <c r="I20">
-        <v>0.001012584498735939</v>
+        <v>0.001311842359418672</v>
       </c>
       <c r="J20">
-        <v>0.0006760016465954865</v>
+        <v>0.000875876003553495</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N20">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O20">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P20">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q20">
-        <v>0.0880203362995</v>
+        <v>0.5504057100689999</v>
       </c>
       <c r="R20">
-        <v>0.352081345198</v>
+        <v>2.201622840275999</v>
       </c>
       <c r="S20">
-        <v>2.620306432960414E-06</v>
+        <v>7.685711099551215E-06</v>
       </c>
       <c r="T20">
-        <v>1.171636971111583E-06</v>
+        <v>3.44963620390337E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.2774365</v>
+        <v>0.6665209999999999</v>
       </c>
       <c r="H21">
-        <v>0.5548729999999999</v>
+        <v>1.333042</v>
       </c>
       <c r="I21">
-        <v>0.001012584498735939</v>
+        <v>0.001311842359418672</v>
       </c>
       <c r="J21">
-        <v>0.0006760016465954865</v>
+        <v>0.000875876003553495</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O21">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P21">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q21">
-        <v>0.007886502427833331</v>
+        <v>0.01894674811966666</v>
       </c>
       <c r="R21">
-        <v>0.047319014567</v>
+        <v>0.113680488718</v>
       </c>
       <c r="S21">
-        <v>2.347758928674644E-07</v>
+        <v>2.645670814451908E-07</v>
       </c>
       <c r="T21">
-        <v>1.574656188389831E-07</v>
+        <v>1.781214849269459E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2774365</v>
+        <v>0.6665209999999999</v>
       </c>
       <c r="H22">
-        <v>0.5548729999999999</v>
+        <v>1.333042</v>
       </c>
       <c r="I22">
-        <v>0.001012584498735939</v>
+        <v>0.001311842359418672</v>
       </c>
       <c r="J22">
-        <v>0.0006760016465954865</v>
+        <v>0.000875876003553495</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N22">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O22">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P22">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q22">
-        <v>13.70290880424217</v>
+        <v>38.83203956724266</v>
       </c>
       <c r="R22">
-        <v>82.21745282545299</v>
+        <v>232.992237403456</v>
       </c>
       <c r="S22">
-        <v>0.0004079264133671528</v>
+        <v>0.000542239718920711</v>
       </c>
       <c r="T22">
-        <v>0.0002735987257341073</v>
+        <v>0.0003650663695306923</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2774365</v>
+        <v>0.6665209999999999</v>
       </c>
       <c r="H23">
-        <v>0.5548729999999999</v>
+        <v>1.333042</v>
       </c>
       <c r="I23">
-        <v>0.001012584498735939</v>
+        <v>0.001311842359418672</v>
       </c>
       <c r="J23">
-        <v>0.0006760016465954865</v>
+        <v>0.000875876003553495</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N23">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O23">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P23">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q23">
-        <v>0.38451186871075</v>
+        <v>1.7887560713805</v>
       </c>
       <c r="R23">
-        <v>1.538047474843</v>
+        <v>7.155024285522</v>
       </c>
       <c r="S23">
-        <v>1.144666068650469E-05</v>
+        <v>2.497768853174738E-05</v>
       </c>
       <c r="T23">
-        <v>5.118229947222738E-06</v>
+        <v>1.121092603311216E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2774365</v>
+        <v>0.6665209999999999</v>
       </c>
       <c r="H24">
-        <v>0.5548729999999999</v>
+        <v>1.333042</v>
       </c>
       <c r="I24">
-        <v>0.001012584498735939</v>
+        <v>0.001311842359418672</v>
       </c>
       <c r="J24">
-        <v>0.0006760016465954865</v>
+        <v>0.000875876003553495</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N24">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O24">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P24">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q24">
-        <v>0.1702846050546667</v>
+        <v>37.86004488338533</v>
       </c>
       <c r="R24">
-        <v>1.021707630328</v>
+        <v>227.160269300312</v>
       </c>
       <c r="S24">
-        <v>5.069258592021547E-06</v>
+        <v>0.0005286670575297335</v>
       </c>
       <c r="T24">
-        <v>3.399982559956119E-06</v>
+        <v>0.0003559284881730965</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2774365</v>
+        <v>0.6665209999999999</v>
       </c>
       <c r="H25">
-        <v>0.5548729999999999</v>
+        <v>1.333042</v>
       </c>
       <c r="I25">
-        <v>0.001012584498735939</v>
+        <v>0.001311842359418672</v>
       </c>
       <c r="J25">
-        <v>0.0006760016465954865</v>
+        <v>0.000875876003553495</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N25">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O25">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P25">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q25">
-        <v>19.6607409334545</v>
+        <v>14.896289782678</v>
       </c>
       <c r="R25">
-        <v>117.964445600727</v>
+        <v>89.37773869606798</v>
       </c>
       <c r="S25">
-        <v>0.0005852870837644323</v>
+        <v>0.0002080076162554839</v>
       </c>
       <c r="T25">
-        <v>0.0003925556057642498</v>
+        <v>0.0001400424621277637</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.7149263333333332</v>
+        <v>169.4444526666666</v>
       </c>
       <c r="H26">
-        <v>2.144779</v>
+        <v>508.333358</v>
       </c>
       <c r="I26">
-        <v>0.002609329784910984</v>
+        <v>0.3334994855025505</v>
       </c>
       <c r="J26">
-        <v>0.002612983755892648</v>
+        <v>0.334000721716171</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N26">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O26">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P26">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q26">
-        <v>0.2268196732923333</v>
+        <v>139.925365123154</v>
       </c>
       <c r="R26">
-        <v>1.360918039754</v>
+        <v>839.5521907389239</v>
       </c>
       <c r="S26">
-        <v>6.752269691717327E-06</v>
+        <v>0.001953878588397935</v>
       </c>
       <c r="T26">
-        <v>4.528788337626319E-06</v>
+        <v>0.001315461294849354</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.7149263333333332</v>
+        <v>169.4444526666666</v>
       </c>
       <c r="H27">
-        <v>2.144779</v>
+        <v>508.333358</v>
       </c>
       <c r="I27">
-        <v>0.002609329784910984</v>
+        <v>0.3334994855025505</v>
       </c>
       <c r="J27">
-        <v>0.002612983755892648</v>
+        <v>0.334000721716171</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O27">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P27">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q27">
-        <v>0.0203227342601111</v>
+        <v>4.816684492986888</v>
       </c>
       <c r="R27">
-        <v>0.182904608341</v>
+        <v>43.35016043688199</v>
       </c>
       <c r="S27">
-        <v>6.049941815254871E-07</v>
+        <v>6.725883251855197E-05</v>
       </c>
       <c r="T27">
-        <v>6.086599140845841E-07</v>
+        <v>6.792366074351805E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.7149263333333332</v>
+        <v>169.4444526666666</v>
       </c>
       <c r="H28">
-        <v>2.144779</v>
+        <v>508.333358</v>
       </c>
       <c r="I28">
-        <v>0.002609329784910984</v>
+        <v>0.3334994855025505</v>
       </c>
       <c r="J28">
-        <v>0.002612983755892648</v>
+        <v>0.334000721716171</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N28">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O28">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P28">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q28">
-        <v>35.31103639001321</v>
+        <v>9871.967560514637</v>
       </c>
       <c r="R28">
-        <v>317.799327510119</v>
+        <v>88847.70804463174</v>
       </c>
       <c r="S28">
-        <v>0.001051185892910256</v>
+        <v>0.1378493886713953</v>
       </c>
       <c r="T28">
-        <v>0.001057555154749417</v>
+        <v>0.1392119779544873</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.7149263333333332</v>
+        <v>169.4444526666666</v>
       </c>
       <c r="H29">
-        <v>2.144779</v>
+        <v>508.333358</v>
       </c>
       <c r="I29">
-        <v>0.002609329784910984</v>
+        <v>0.3334994855025505</v>
       </c>
       <c r="J29">
-        <v>0.002612983755892648</v>
+        <v>0.334000721716171</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N29">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O29">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P29">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q29">
-        <v>0.9908489345148332</v>
+        <v>454.741551232813</v>
       </c>
       <c r="R29">
-        <v>5.945093607088999</v>
+        <v>2728.449307396878</v>
       </c>
       <c r="S29">
-        <v>2.949690885486809E-05</v>
+        <v>0.00634988359277564</v>
       </c>
       <c r="T29">
-        <v>1.978375611711948E-05</v>
+        <v>0.004275099866847046</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.7149263333333332</v>
+        <v>169.4444526666666</v>
       </c>
       <c r="H30">
-        <v>2.144779</v>
+        <v>508.333358</v>
       </c>
       <c r="I30">
-        <v>0.002609329784910984</v>
+        <v>0.3334994855025505</v>
       </c>
       <c r="J30">
-        <v>0.002612983755892648</v>
+        <v>0.334000721716171</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N30">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O30">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P30">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q30">
-        <v>0.4388065316382222</v>
+        <v>9624.864907783342</v>
       </c>
       <c r="R30">
-        <v>3.949258784744</v>
+        <v>86623.78417005007</v>
       </c>
       <c r="S30">
-        <v>1.306297642131608E-05</v>
+        <v>0.1343989164722835</v>
       </c>
       <c r="T30">
-        <v>1.314212656762922E-05</v>
+        <v>0.1357273991373816</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.7149263333333332</v>
+        <v>169.4444526666666</v>
       </c>
       <c r="H31">
-        <v>2.144779</v>
+        <v>508.333358</v>
       </c>
       <c r="I31">
-        <v>0.002609329784910984</v>
+        <v>0.3334994855025505</v>
       </c>
       <c r="J31">
-        <v>0.002612983755892648</v>
+        <v>0.334000721716171</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N31">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O31">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P31">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q31">
-        <v>50.663778652669</v>
+        <v>3786.96795598328</v>
       </c>
       <c r="R31">
-        <v>455.974007874021</v>
+        <v>34082.71160384952</v>
       </c>
       <c r="S31">
-        <v>0.001508226742851301</v>
+        <v>0.05288015934517967</v>
       </c>
       <c r="T31">
-        <v>0.001517365270206772</v>
+        <v>0.05340285980186216</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>127.989131</v>
+        <v>125.4194246666667</v>
       </c>
       <c r="H32">
-        <v>383.967393</v>
+        <v>376.258274</v>
       </c>
       <c r="I32">
-        <v>0.4671332361000931</v>
+        <v>0.2468497076185933</v>
       </c>
       <c r="J32">
-        <v>0.4677873854142774</v>
+        <v>0.2472207127270228</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N32">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O32">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P32">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q32">
-        <v>40.606215668453</v>
+        <v>103.569981276062</v>
       </c>
       <c r="R32">
-        <v>243.637294010718</v>
+        <v>621.4198876563719</v>
       </c>
       <c r="S32">
-        <v>0.001208819831955468</v>
+        <v>0.001446222195939704</v>
       </c>
       <c r="T32">
-        <v>0.0008107628112020781</v>
+        <v>0.0009736783717306686</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>127.989131</v>
+        <v>125.4194246666667</v>
       </c>
       <c r="H33">
-        <v>383.967393</v>
+        <v>376.258274</v>
       </c>
       <c r="I33">
-        <v>0.4671332361000931</v>
+        <v>0.2468497076185933</v>
       </c>
       <c r="J33">
-        <v>0.4677873854142774</v>
+        <v>0.2472207127270228</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O33">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P33">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q33">
-        <v>3.638261700849666</v>
+        <v>3.565214372049555</v>
       </c>
       <c r="R33">
-        <v>32.744355307647</v>
+        <v>32.086929348446</v>
       </c>
       <c r="S33">
-        <v>0.0001083086129902009</v>
+        <v>4.978365443938747E-05</v>
       </c>
       <c r="T33">
-        <v>0.0001089648679116412</v>
+        <v>5.027574711144112E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>127.989131</v>
+        <v>125.4194246666667</v>
       </c>
       <c r="H34">
-        <v>383.967393</v>
+        <v>376.258274</v>
       </c>
       <c r="I34">
-        <v>0.4671332361000931</v>
+        <v>0.2468497076185933</v>
       </c>
       <c r="J34">
-        <v>0.4677873854142774</v>
+        <v>0.2472207127270228</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N34">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O34">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P34">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q34">
-        <v>6321.530836884131</v>
+        <v>7307.034678812535</v>
       </c>
       <c r="R34">
-        <v>56893.77753195717</v>
+        <v>65763.31210931283</v>
       </c>
       <c r="S34">
-        <v>0.1881877372256667</v>
+        <v>0.1020333846622246</v>
       </c>
       <c r="T34">
-        <v>0.1893279893745906</v>
+        <v>0.1030419462365511</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>127.989131</v>
+        <v>125.4194246666667</v>
       </c>
       <c r="H35">
-        <v>383.967393</v>
+        <v>376.258274</v>
       </c>
       <c r="I35">
-        <v>0.4671332361000931</v>
+        <v>0.2468497076185933</v>
       </c>
       <c r="J35">
-        <v>0.4677873854142774</v>
+        <v>0.2472207127270228</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N35">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O35">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P35">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q35">
-        <v>177.3859601583605</v>
+        <v>336.590681076139</v>
       </c>
       <c r="R35">
-        <v>1064.315760950163</v>
+        <v>2019.544086456834</v>
       </c>
       <c r="S35">
-        <v>0.005280661175143135</v>
+        <v>0.004700057950394593</v>
       </c>
       <c r="T35">
-        <v>0.003541771557833311</v>
+        <v>0.003164344168571168</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>127.989131</v>
+        <v>125.4194246666667</v>
       </c>
       <c r="H36">
-        <v>383.967393</v>
+        <v>376.258274</v>
       </c>
       <c r="I36">
-        <v>0.4671332361000931</v>
+        <v>0.2468497076185933</v>
       </c>
       <c r="J36">
-        <v>0.4677873854142774</v>
+        <v>0.2472207127270228</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N36">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O36">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P36">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q36">
-        <v>78.55699817300534</v>
+        <v>7124.13419401394</v>
       </c>
       <c r="R36">
-        <v>707.0129835570481</v>
+        <v>64117.20774612545</v>
       </c>
       <c r="S36">
-        <v>0.002338589197914194</v>
+        <v>0.09947941354525776</v>
       </c>
       <c r="T36">
-        <v>0.00235275899132201</v>
+        <v>0.1004627300771009</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>127.989131</v>
+        <v>125.4194246666667</v>
       </c>
       <c r="H37">
-        <v>383.967393</v>
+        <v>376.258274</v>
       </c>
       <c r="I37">
-        <v>0.4671332361000931</v>
+        <v>0.2468497076185933</v>
       </c>
       <c r="J37">
-        <v>0.4677873854142774</v>
+        <v>0.2472207127270228</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N37">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O37">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P37">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q37">
-        <v>9070.043584348025</v>
+        <v>2803.038605252377</v>
       </c>
       <c r="R37">
-        <v>81630.39225913222</v>
+        <v>25227.34744727139</v>
       </c>
       <c r="S37">
-        <v>0.2700091200564234</v>
+        <v>0.0391408456103372</v>
       </c>
       <c r="T37">
-        <v>0.2716451378114177</v>
+        <v>0.03952773812595758</v>
       </c>
     </row>
   </sheetData>
